--- a/Excel/hustle_test.xlsx
+++ b/Excel/hustle_test.xlsx
@@ -16907,7 +16907,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mark Ronson - Lizzo - Charli XCX - </t>
+          <t>Mark Ronson - Lizzo - Charli XCX</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
